--- a/add_new_novel.xlsx
+++ b/add_new_novel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="924">
   <si>
     <t>Titles</t>
   </si>
@@ -35,13 +35,2770 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Zanzaniya Novel by Husna Hussain</t>
-  </si>
-  <si>
-    <t>https://www.urdunovelbanks.com/2025/08/zanzaniya-novel-by-husna-hussain.html</t>
-  </si>
-  <si>
-    <t>Zanzaniya by Husna Hussain</t>
+    <t>Dhanak By Raabia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KwuFPZssR4gNu9gYnMQfk0LWjsEZnycV/view</t>
+  </si>
+  <si>
+    <t>Hisar E Yaar By Raabia Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1clPdgOQhdXYpdi_sxw1GLM1ZVeFuJu5o/view</t>
+  </si>
+  <si>
+    <t>Azazeel By Raabia Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fEdc7wgk80ZMAoro85tGZDTVU1Hp5NZD/view</t>
+  </si>
+  <si>
+    <t>Carpe Diem By Raabia khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-7QhCAjPoS84AxG0VZ2FVyljOQDG1Nq2/view</t>
+  </si>
+  <si>
+    <t>Momina Ji By Raabia khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/172trKjGNLFDAwrwHoHrppZDRGVrk1EEx/view</t>
+  </si>
+  <si>
+    <t>Kehef By Raabia Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19MWbOpcYL73Rkf6I8cT2JUCgYFw5Yxyd/view</t>
+  </si>
+  <si>
+    <t>ankaboot novel complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18qsHz71vkCBvEvcnW82DQpg-wTP7PSXa/view</t>
+  </si>
+  <si>
+    <t>maseel complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZNQ61k4HQVbr73LWPfWDKRegH781vPU_/view</t>
+  </si>
+  <si>
+    <t>Mere Rahnuma Novel By Noor Rajpoot Complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/109k3ZRThK_PyN-1x7K2NJtD8PYmexZVa/view</t>
+  </si>
+  <si>
+    <t>the volverine</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IB3siX1jtj3MTVNXa57EZI8Je6MF5Sws/view</t>
+  </si>
+  <si>
+    <t>Sulphite by Noor Rajpoot (2)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fv-D0ssmRXUYLcBMW0CfATEF3eby_Rpd/view</t>
+  </si>
+  <si>
+    <t>the medium</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GqaKM2-1-_7yXmNNo8SoIzd2YAOun23q/view</t>
+  </si>
+  <si>
+    <t>hinave novel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iE0PjGz5JriOAgx2r1pLJPKlkVM7c4ng/view</t>
+  </si>
+  <si>
+    <t>Siyah-Hashia-By-Saima-Akram+Ch_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tRr1GRtSyEwNQ4wJKNzJscn_fit0nMsT/view</t>
+  </si>
+  <si>
+    <t>Ibn e adam by saima akram chaudhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oXnepK13jUzNPQmocAjAbKOxczpNAT7I/view</t>
+  </si>
+  <si>
+    <t>Gumshuda jannat by saima CH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13h3zoTJcy9DIEpdCOxitxs3tVNerAHMw/view</t>
+  </si>
+  <si>
+    <t>Ek Rasm E Mohabbat Hai by Saima Akram Choudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B-DSgYiiDlcIXYxJATpCbOWV73qVHVgd/view</t>
+  </si>
+  <si>
+    <t>Demak+zada+mohabbat+by+Saima+Akram+Choudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FWoGVZ1vwQKN9QiSq88HPynnZt-I4GZq/view</t>
+  </si>
+  <si>
+    <t>Bund+Mothee+Main+Sulagti+Rait+By+Saima+Akram+Choudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f0ffRY7uViIH7mwcYV3Ys6luSrfC1p1Z/view</t>
+  </si>
+  <si>
+    <t>Chalo+Hum+Sath+Chalte+Hain+By+Saima+Akram+Chaudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CrSci0SGH6WPcBtURlf8GASthFyPH4nn/view</t>
+  </si>
+  <si>
+    <t>Wey Sone Diya Kangna By Saima Akram Chaudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Orv92XkAkucgMguxWwwDH4aWRATGzZnI/view</t>
+  </si>
+  <si>
+    <t>Sheharzaad Novel Complete By Saima Akram Chaudhry</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MzSkP3Kw4Zz_suq5j30k8X2PJ18RtjL0/view</t>
+  </si>
+  <si>
+    <t>Aalam e lahoot by Sumera Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UbZszn4PNhwP6aruG48fPyB_OGKgJHLE/view</t>
+  </si>
+  <si>
+    <t>Hadd e nazar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-CbZIKmY2AlA95No-nqdKKurhAJw4zmS/view</t>
+  </si>
+  <si>
+    <t>Aik thi mohabbat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rf2VjfdjDR0URe9FHSw8ElweS8KusPmA/view</t>
+  </si>
+  <si>
+    <t>Chalo jane do by sumera hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A6VI9qR9wc5yWedLFcTJKnmcjtSMMOIc/view</t>
+  </si>
+  <si>
+    <t>Hayat mumkin hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AtncNG3lpMCONGf0cyPTVeoOWnhuck1E/view</t>
+  </si>
+  <si>
+    <t>Raah e nuward</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zqw1y0ZCf7X_S_f1hzzMEGZ-1YE0baJ_/view</t>
+  </si>
+  <si>
+    <t>Rabul basher by Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/112ceQ7yP3loYfVVmw2AmE19lWxee53Ol/view</t>
+  </si>
+  <si>
+    <t>Twaaf e ishq complete1use</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iJUisHJK3Du4Zh6C7gkuk2xHzes2kQHe/view</t>
+  </si>
+  <si>
+    <t>Tulip Novel By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dqH2ZikYQdsa1-eKhPMfRW6B9g6xiN7A/view</t>
+  </si>
+  <si>
+    <t>Twaaf e ishq complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L0vPbRkLcakeYW7LEx9denqylKYSGnx_/view</t>
+  </si>
+  <si>
+    <t>Ummal Yaqeen Novel By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iIwZ-Kjja7qHvYFuBneG0MN5l2c-qeCM/view</t>
+  </si>
+  <si>
+    <t>Mohabbat Man Mehram by Sumaira</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13v5trbkb5JctECjW3HLJ3EuXQnmhCV8l/view</t>
+  </si>
+  <si>
+    <t>Pardes complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q1X6AppPGErOLyfkpxFO7FT1_l0MbmtY/view</t>
+  </si>
+  <si>
+    <t>Dil Say By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZvMVg58bUrTiAVNscPw_qbWrQFfHw4FB/view</t>
+  </si>
+  <si>
+    <t>Khayal e Yaar -</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q5gyMCoPj8X7PXQPNrSYl7bHxDtus_Bi/view</t>
+  </si>
+  <si>
+    <t>yaram novel by sumaira hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HpSI5h4tt7EucPG6ftfqihWEHfifzJRZ/view</t>
+  </si>
+  <si>
+    <t>Muhar sabat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jcFye_YVKCoqLAfGJIcjAxO4vSaWwGCK/view</t>
+  </si>
+  <si>
+    <t>Raah e Noor</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SDAq2tp4rk8tZp6Avn1VhNaDQ0jhZO46/view</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CEcU2zHB9xzSQEIsCasDp6lLvt_xUq7o/view</t>
+  </si>
+  <si>
+    <t>Ishq Amad o Man</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OAzo90AGp2u53iaMBvQAtiN5k7efA8wn/view</t>
+  </si>
+  <si>
+    <t>Borshay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14wMhpMV3f0_WdKw-wERwScTAWJqluD2m/view</t>
+  </si>
+  <si>
+    <t>Wali</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j1CoFUmjfdkPz8Km4aJV0ZtWQUbuM9zR/view</t>
+  </si>
+  <si>
+    <t>zakhmon ki dairy by sabir ch</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RQRHkKcgNjVeWkAeBiFrZX3mg_2H9F7l/view</t>
+  </si>
+  <si>
+    <t>mahar-e-nafsiyat-ki-diary-by-sabir ch</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kw4DBJUszn19cNuP6167jp-tVzqxt-ml/view</t>
+  </si>
+  <si>
+    <t>larkiyon ki dairy by sabir ch</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KrXjym3dad_wk_xhWN8xddjfbVRE2Jw_/view</t>
+  </si>
+  <si>
+    <t>abnormal ki dairy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bnJOawUU3v4sZ2y943_oQaBlCgszG6Jl/view</t>
+  </si>
+  <si>
+    <t>safina-e-gham-e-dil-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KFsWI09iCt0_QLNEPDTwvKvIQ8WDg15-/view</t>
+  </si>
+  <si>
+    <t>raushni-ki-raftar-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D7GrjWghY4tIYCOrbd7lBM2f_KFNXE7k/view</t>
+  </si>
+  <si>
+    <t>sheeshe-ke-ghar-qurratulain-hyder-ebooks-1_compressed_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Jz4NVTfzZLht7IOU9LKvVWRkJuGRPhys/view</t>
+  </si>
+  <si>
+    <t>seeta-hiran-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14dpQFQpXnRGlzP2Ns9GzfrGUO0ie8S8J/view</t>
+  </si>
+  <si>
+    <t>sitamber-ka-chand-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18TnHxsHgOjOfDiu-5EP9Pm-aUSZea8pV/view</t>
+  </si>
+  <si>
+    <t>sitaron-se-aage-qurratulain-hyder-ebooks-1_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1msk6hABA0VgKkR53lxPcIMD_WVxvJl_5/view</t>
+  </si>
+  <si>
+    <t>zindagi-naama-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oDJEC1UE8iSK5z3PwTj0lN_-LsRhFhHn/view</t>
+  </si>
+  <si>
+    <t>picture-gallery-qurratulain-hyder-ebooks-1_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZL_7HKGDS-FFcW0bOPLYuxAol9mz6L5G/view</t>
+  </si>
+  <si>
+    <t>mere-behtreen-afsane-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kPStMETWWIPL-U7w2qxry5igt_gvPzNm/view</t>
+  </si>
+  <si>
+    <t>koh-e-damavand-qurratulain-haider-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/126JsDW8YGgoQ2iZMF5pWKEl5w5EOA_cH/view</t>
+  </si>
+  <si>
+    <t>Kar+E+Jahan+Daraz+Part+1+2+by+Qiratul+Ain+Haider_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wQGT1dktt13ElV1jYiAMOrOiKY7I94GD/view</t>
+  </si>
+  <si>
+    <t>jugnuon-ki-duniya-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rYI1LknxkotjZBaOl1K13c37TUZgumCy/view</t>
+  </si>
+  <si>
+    <t>gulgasht-qurratulain-hyder-ebooks_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QXHwv_U5BM76qevXfYULMWUBLzPHgzHw/view</t>
+  </si>
+  <si>
+    <t>Gardish+Rang+e+Chaman+by+Qiratul+Ain+Haider_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GNc_LR0AjwIIIarhVri0L0LtXbL7Kw8W/view</t>
+  </si>
+  <si>
+    <t>fasal-e-gul-aai-ya-ajal-aai-qurratulain-hyder-ebooks-1_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_Erebh31s7VxSloScmeH2JruUXYe-vE-/view</t>
+  </si>
+  <si>
+    <t>Dilruba+by+Qiratul+Ain+Haider - converted_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hMBgDc-OhspGy-p0UILfOWnwUkuTkV6y/view</t>
+  </si>
+  <si>
+    <t>dastan-e-ahd-e-gul-qurratulain-hyder-ebooks-1_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YqmOv4ORrI0gE0KAqJjXCY-37rVIVg2X/view</t>
+  </si>
+  <si>
+    <t>chandni-begum-qurratulain-hyder-ebooks-1_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X-hpXh52AssFufBbztsuiFHZy865iAjk/view</t>
+  </si>
+  <si>
+    <t>Alps_Ke_Geet_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XcfdKczJdFrkAJ_kzZs4YN-gb2bNbOYg/view</t>
+  </si>
+  <si>
+    <t>Aakhri Shab Ka Hamsafar by Quratulain Haider_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n44gbmZLAyy_mNnjKXubZACWjxqMPAeo/view</t>
+  </si>
+  <si>
+    <t>aag-ka-darya-qurratulain-hyder-ebooks-6_compressed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1utNxz0nBEev9XW6uXOheUUlF0NDZcsSZ/view</t>
+  </si>
+  <si>
+    <t>Patjhar-ki-Awaz+by+Qurratul+Ain+Haider</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12WjjAdPxDHfRD5NfEvzjkchVcOXuQQtd/view</t>
+  </si>
+  <si>
+    <t>Meray+Bhi+Sanam+Khanay+by+Qiratul+Ain+Haider</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QGMi4UvgbKu5EIVdjAYxn3_oFiI-8swB/view</t>
+  </si>
+  <si>
+    <t>chayekebaagh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/116GARPUX2hFNTpJk0aNot3Mbr_ybLJQI/view</t>
+  </si>
+  <si>
+    <t>Jahan+Degar+Quratul+Ain+Haider</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F7RIX_PxpLo1v7avcZfN3d3GGUeL_zsY/view</t>
+  </si>
+  <si>
+    <t>Aik Mohabbat Aur Sahi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ahZ6i9waWwhX11exQanG_lVRSpS5U2zd/view</t>
+  </si>
+  <si>
+    <t>Hashim Nadeem - Saleeb e Ishq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1P_iB3Rx1SgX7wBvSls-c1W63IPL5QXPb/view</t>
+  </si>
+  <si>
+    <t>abdullah part 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FLI3ACHeadL6TZ3jxVjGpQNE-HxkkoLU/view</t>
+  </si>
+  <si>
+    <t>مقدس ناول از ہاشم ندیم</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13aOjtEbKLQr-ZrL2umtXF-h-8Qau1WW5/view</t>
+  </si>
+  <si>
+    <t>Bachpan Ka Dec</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lIESluLz_qdxGDyX257eVWDk00iBrAxO/view</t>
+  </si>
+  <si>
+    <t>Parizad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f837Sz-q-4evDQYH60e2NQJqFAO_iS4k/view</t>
+  </si>
+  <si>
+    <t>Khuda Aur Mohabbat English</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xWN-SVA7ElDW76F4kOpCINEvE8BYZg7F/view</t>
+  </si>
+  <si>
+    <t>Khuda or Mohabbat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1730WknICOcJyNt7yqY4P1TG6oBQQRdax/view</t>
+  </si>
+  <si>
+    <t>Hashim Naadeem - Abdullah 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1924wMLymFzG2fY9JlsS_bzaUsPp69z51/view</t>
+  </si>
+  <si>
+    <t>main abdul qadir hun by sarwat nazir</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15PM4lh_2Lz2Pux-_uXs0bkUYa_GSoZ3q/view</t>
+  </si>
+  <si>
+    <t>aab-e-hayat-umera-ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F0r4Tr_-iRI54D3Q7F5etVIJA3y4XnhN/view</t>
+  </si>
+  <si>
+    <t>aab-e-hayat-umera-ahmad-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VPo65pbTxJQjJjnEhFAXF0nOiY29czPz/view</t>
+  </si>
+  <si>
+    <t>Aao Ham Pehla Qadam Dharte Hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Uz5B-LJ1nrcMV6_-rijKZ_HT5eYo558F/view</t>
+  </si>
+  <si>
+    <t>Doraha novel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aOluXU8wx8Li3uGaukfA6nTzW8Sx9pyV/view</t>
+  </si>
+  <si>
+    <t>Ghar Aor Ghaata by Umaira Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c7b23LZL9EZu23nllDBeysq2LRY1_YV9/view</t>
+  </si>
+  <si>
+    <t>Harf Se Lafz Tak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VUENftTJxZKhFlmDzU2hcyu6MvmIOfFQ/view</t>
+  </si>
+  <si>
+    <t>Muthi bhar mitti novel by umera ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1neV4pVCllY9-rwqRNdXTvHPuQzo9ApY6/view</t>
+  </si>
+  <si>
+    <t>peer-e-kamil-umera-ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KsbGy_E5bWC8aXrYE1S5yizbTM87N2Aj/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gDVz35fRq258LRdIRoPilwTptMgqg02u/view</t>
+  </si>
+  <si>
+    <t>zindagi-gulzar-hai-umera-ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-3-9MwBhdf5R4HW2DgUfpk4fLMPn5Mox/view</t>
+  </si>
+  <si>
+    <t>Mohabbat Subh Ka Sitara By Umera Ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ytq51-TYOrJC75zlC0cXdUfIP9Xd5hm6/view</t>
+  </si>
+  <si>
+    <t>Doosra Dozakh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WO_fmHyeiZ0BuUGnecm8mEgj5oBMzWRA/view</t>
+  </si>
+  <si>
+    <t>Koi Lamha Khwab Naheen Hotaa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zptbSgPd8b0tqkxRdJqNHwF3Au6uO2B7/view</t>
+  </si>
+  <si>
+    <t>Pagal Aankhon Wali</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dpUHkGMURbBZLY7_R34xVEg5McyruGaD/view</t>
+  </si>
+  <si>
+    <t>Aisa Kabhe Nahi Hota Written By Umaira Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12iC-S65zxYxNUzEsp9eyFfAE1wZSnneF/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-l0Glz5Dp8xf23txCj_4uv5oUYmgapu4/view</t>
+  </si>
+  <si>
+    <t>Band Kawaron Ke Aagay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s72z8FKf-BdN7af97dFpmRHDU_Nycmds/view</t>
+  </si>
+  <si>
+    <t>Abhi Tu Maat Baqi Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yIYDdPiJnKTt1S1zbhkYukNPY1gbUcJO/view</t>
+  </si>
+  <si>
+    <t>Umera Ahmed - Hum Kahan Kay Sachay Thay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LlXzT1wLSW01Zj6YiDP9DT4-ckX2ExvZ/view</t>
+  </si>
+  <si>
+    <t>Meri Zaat Zarra e Be Nishan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cjYj4yYLRChby_jPn-PQ7zB0ff4D25xi/view</t>
+  </si>
+  <si>
+    <t>Kis Jahan Ka Zar Liya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t5NDTqIT1NJdGYYIEE4_5lAXqYWqOa0k/view</t>
+  </si>
+  <si>
+    <t>hilal e jurat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aY8FXYQxrX7_uveNw473cYfxe9Ay9qjL/view</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yHGaFwzk2Ti4Y75rAvNtrt17fdyWx271/view</t>
+  </si>
+  <si>
+    <t>Chand_Se_Pehle+by+Umera+Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Gg7KAOMJT_IrIUTCZto3f52WSPxt0Htu/view</t>
+  </si>
+  <si>
+    <t>Bus Ek Dagh e Nidamat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZWLM0dBUHfg1hAq0IsbEij3F8C8C-UfH/view</t>
+  </si>
+  <si>
+    <t>Baat Umar Bhar Ki H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qnPSGcUtL14CJLMjpzka-ESzxeC2mmVA/view</t>
+  </si>
+  <si>
+    <t>Ab Mera Intizaar Ker</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13g7u1RgqX3eNr_5-zb4h9eKFRBo1xGxa/view</t>
+  </si>
+  <si>
+    <t>Koi Baat Hai Teri Baat Mein</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17mM9-L_NADs7fCJbeBCJdU0_PSvFr7qx/view</t>
+  </si>
+  <si>
+    <t>Main-Ne-Khuwabon-Ka-Shajar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mWxcAR6xiNOCtbrgdcH2aZJXOa1n-9Mn/view</t>
+  </si>
+  <si>
+    <t>Teri Yaad Khaar e Gulab Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q0fthHrnzJDB_5B8g9g5KDy2lM5fsGyJ/view</t>
+  </si>
+  <si>
+    <t>Yeh Jo Ek Subah Ka Sitara Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i-yaANSYMFcpZnL54xhyUqoEj6lGzGwe/view</t>
+  </si>
+  <si>
+    <t>LaA Hasil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1th17TK_U3BHaSdNUYsvGOX8ibYXUa7Wv/view</t>
+  </si>
+  <si>
+    <t>Shehar e Zaat Novel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oHvoQTwVIILWJBzpjaR2WHPTNY4vP13U/view</t>
+  </si>
+  <si>
+    <t>Maat Hone Tak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17d2MGFlGSFHNbsMhiKxQyHaE9xtASZOS/view</t>
+  </si>
+  <si>
+    <t>Eman Umeed And Mohabbat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1traYOuQja8S891GlI7xtHHJudfg070na/view</t>
+  </si>
+  <si>
+    <t>Amarbail novel by umera ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1thxCKrrD3TTFsY6_lDLeXIhdoImedmhK/view</t>
+  </si>
+  <si>
+    <t>Sehar Ek Istara Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dYK-LARjU62LMwO-Wpe1A28XApG1yYNN/view</t>
+  </si>
+  <si>
+    <t>Meray50PasandedaScene</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wmMLvJBh5UYGI2sT4qmCLZYN37rKZrYB/view</t>
+  </si>
+  <si>
+    <t>wapsi by UA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e9Zez1s4sDl1O8Ww2bsfo-fwAd_vQtlH/view</t>
+  </si>
+  <si>
+    <t>Husna aur Husan Ara</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14l6Qdqb37lPKiJuCkEdIitxZdu6SThLS/view</t>
+  </si>
+  <si>
+    <t>AKS Complete by Umera Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15IJPs40sHUvMoAGT9IPbME9Bj8xKLWJG/view</t>
+  </si>
+  <si>
+    <t>Darbar e Dil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sLBEI3TL_Wv-xxWfhDni_pPtxaozSgU_/view</t>
+  </si>
+  <si>
+    <t>Kankar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vfCZY2W8DABTCr5uP2yHq9MG9sar9zXy/view</t>
+  </si>
+  <si>
+    <t>Qaid e Tanhai Pdfbooksfree</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G--UO8TlaEBnMszqkF5nmeIoBLs3rP5S/view</t>
+  </si>
+  <si>
+    <t>Tora sa Aasman (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/185i7jXx4H6y6hDNUoYJ9kx1-BA3IKcPX/view</t>
+  </si>
+  <si>
+    <t>dana-pani-umera-ahmed-ebooks</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZpwUHQoiszYG9fYtMF44afQjGQW62Eu1/view</t>
+  </si>
+  <si>
+    <t>Maan-O-Salwa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W_e0owvN5vOhsbrJcmz5E5Jwda-MhgMk/view</t>
+  </si>
+  <si>
+    <t>Oran by Umera Ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X6R6h74Wnv3stOJtJNTBjVDDMCgC-5xD/view</t>
+  </si>
+  <si>
+    <t>Peer e kamil SAW(english version)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VcOeKZrUh3iTZtC3Vt0cc7cF1LSkrbqs/view</t>
+  </si>
+  <si>
+    <t>peer-e-kamil-by-umera-ahmed-roman-urdu-translation-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QCEOeHXv2XKRTzfFlnrIVKpwFqEfMUFK/view</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Nka339pccV4S8Gyz1marv_ho3Tjs9DIl/view</t>
+  </si>
+  <si>
+    <t>Alif</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KuWwZVzzQk93sHLJEPZRWqCK3nLTxkbC/view</t>
+  </si>
+  <si>
+    <t>Iblees</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PUTlG-ilCSmPgX4JixLMj6Zq8qmr1ayb/view</t>
+  </si>
+  <si>
+    <t>Pahari Ka Qaidi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MPGw17qtBSeXS3H-3gbnh6suJW_rN6Rt/view</t>
+  </si>
+  <si>
+    <t>Sans Sakin Thi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AxYXbsTf37XN7-1QtEBrU_hR3c8BtPs1/view</t>
+  </si>
+  <si>
+    <t>Guman by Nimara</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ie5nJyECs0BYjZFzxzFafGQRKIqhPvYp/view</t>
+  </si>
+  <si>
+    <t>Wo Mera Hai by Nimra</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RQluMf20jzWxeD3gl7vjnQxEq4BgPLdO/view</t>
+  </si>
+  <si>
+    <t>Paras</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CgFMJNF2djRydsckhvmy-7UCWsvI4FL9/view</t>
+  </si>
+  <si>
+    <t>Namal by Nimra Ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1evpQc_7nI6dYvG62JExViERf9DtKRO9o/view</t>
+  </si>
+  <si>
+    <t>mere-khwab-mere-jugnu-nimra-ahmad-ebooks</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rlUlSZtojaWMH6tSGTRANlnlfUOkCnsh/view</t>
+  </si>
+  <si>
+    <t>Mehr Un Nisa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1plmbUC8Vpp0z2xs9J1MqrUPTUJzJfD-r/view</t>
+  </si>
+  <si>
+    <t>mashaf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14pGkzGr31sSC6eZ9w7JVbp8rUK1rRTxZ/view</t>
+  </si>
+  <si>
+    <t>Main Anmol</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eY3Jbtdg_nq7oQbCR_iQNw6VoyRzrOFq/view</t>
+  </si>
+  <si>
+    <t>Ahmaq Tamashai Novel by Nimra Ahmed download in pfd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q1Zwj4poFAsQD6QGhI6d6DMuVwjBjTmJ/view</t>
+  </si>
+  <si>
+    <t>Lapata by Nimra</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DDLpdkkSSkezQkVyx-ThCwPAZobTMTPC/view</t>
+  </si>
+  <si>
+    <t>Karakoram ka tajmehal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xNpIv7Kw_w2O-MqSQRJKG1iCMTbVhcto/view</t>
+  </si>
+  <si>
+    <t>Hadd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N4RReSOGjprzsc45j3tbcEodR5IWSOnE/view</t>
+  </si>
+  <si>
+    <t>Haalim</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gb7q8PwhSRGpoSOya3t72IQAjzxGWz3Q/view</t>
+  </si>
+  <si>
+    <t>home-girl-nimra-ahmad-ebooks</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U0QVcn3jjfa_kiqKqp-SZ74LNqVJZxpR/view</t>
+  </si>
+  <si>
+    <t>Apni Ungli By Nimra Ahmad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12ZkYw1AQWrsg7jwt6edLYR2y91WJrcdq/view</t>
+  </si>
+  <si>
+    <t>Beli Rajputan Ki Malka (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bwEcUKWQgbvmSYx7bL5QwN8enWT8LdDf/view</t>
+  </si>
+  <si>
+    <t>Jannat Ke Pattay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZTkdm38Bn2Ub0AG-WgoPWQy9oGltTNvT/view</t>
+  </si>
+  <si>
+    <t>Husn-e-Anjaam by nimra ahmed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FNlaaW0_zU-pvWRqjmvHKraElmGbdvd6/view</t>
+  </si>
+  <si>
+    <t>بازگشت از بانو قدسیہ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zo7Stm49EPDPuW_UDMa0cNCzs0tLiyVO/view</t>
+  </si>
+  <si>
+    <t>Shaam Dhalne Se Pehle By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11cLOole6KwI8NcxWpZsk2k7BXjzwB1M4/view</t>
+  </si>
+  <si>
+    <t>Bas Ab laut Ana By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tAuhWi5U4D7fDYRLa2swbOzm3RzeCZlM/view</t>
+  </si>
+  <si>
+    <t>Mohabat Ka Hisar By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hduBVMb2D9AZdUCaLvc0kBPrCJlI7dM9/view</t>
+  </si>
+  <si>
+    <t>NA - Muje Roothne Na Dena</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jtKGcjYqcCB1mT0h94TMlz0c30qVRvbH/view</t>
+  </si>
+  <si>
+    <t>Raston K Sang Rahi By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rsliztL4y1b39R-d_Stfsz4tiQBWLqv5/view</t>
+  </si>
+  <si>
+    <t>Nimra Ahmed - Sans Sakin Thi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eWuroxmlrobSCaBnneJ2iB1F4wVYM2xZ/view</t>
+  </si>
+  <si>
+    <t>Kahen To Bad e Saba Thehray</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SSeC19lva-4rvzQdLZQm-kk0nIOrhLfY/view</t>
+  </si>
+  <si>
+    <t>Ek Larki Ababeel Si By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Skq8BkMhDdERj9ZRPTfdMOIivXh0lMK5/view</t>
+  </si>
+  <si>
+    <t>Aik Aam Si Larki</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1duKv8SZU0tNjjWXNtcUhaQ53A4IWkY2S/view</t>
+  </si>
+  <si>
+    <t>Be Simt Justaju Ka Safar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QsZmdne8Tu2clB_HwW-cJxteqZN7wqbT/view</t>
+  </si>
+  <si>
+    <t>Rah takta hai shehar e janan by Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CwvA04iSAyhTBBdz2V-I05ZaB2nQA_b0/view</t>
+  </si>
+  <si>
+    <t>Ab itraf e shikasat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X_M7vDZrUb4N6EP7Kqx5QCc6zVTLclsv/view</t>
+  </si>
+  <si>
+    <t>Kahan Rukay Hein Mohabbat Ke Qaflay By Nighat Abdullah urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16z4MCulNmvnMpdd8-9OjXYcqfQRzxZ9t/view</t>
+  </si>
+  <si>
+    <t>Safar He Tamaam Rah Main Hai By Nighat Abdullah 9MB urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sk4F8_CRb_rkfJCCpsOAV-o5uZoFLITJ/view</t>
+  </si>
+  <si>
+    <t>Wohi Shikast E Tamanna By Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lEXl7mQGT9rE8ouZ-E-gfSCbE-KSJ3RY/view</t>
+  </si>
+  <si>
+    <t>Intezar E Fasl E Gul</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BdLAw2oc9-jEHMIkAqBelQAgWAdKIKT3/view</t>
+  </si>
+  <si>
+    <t>Dil+E+Beqrar+By+Nighat+Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gs2lEIpiryi-voprr9q-l1G5vr29AEtG/view</t>
+  </si>
+  <si>
+    <t>Meray Naseeb Ki Barishain By Nighat Abdullah urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H8DehHbUhpZgxTRZqXEiYVzFaP216n5k/view</t>
+  </si>
+  <si>
+    <t>Zindagi+Dhop+Aur+Chaoon+by+Nighat+Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Mex6FrQgnOZ6UFD3Z-QR-pqNExJidFWj/view</t>
+  </si>
+  <si>
+    <t>Ye Dil Kay Mausam By Nighat abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XpexiIU2Lv9egygKld2GoNxVYxWE1Dxz/view</t>
+  </si>
+  <si>
+    <t>Koi Lamha Ghulab ho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q1Y3100-fbl-RhZtqdUvRbdHu6bwK0x0/view</t>
+  </si>
+  <si>
+    <t>Dil+Se+Uska+Rishta+by+Nighat+Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Smnjf-PiBejKNyUp-ocC1Uxt3Dqk7OCl/view</t>
+  </si>
+  <si>
+    <t>Youn+Na+Chaha+Tha+By+Nighat+abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/125ENe0kt3ShCNeGahuHsvdv2qJavJJXz/view</t>
+  </si>
+  <si>
+    <t>Tery ishq nachaya novel by Nighat Abdullah Complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b9O7TqWfyPdZMiFlSnL0INS1QoHPfZHf/view</t>
+  </si>
+  <si>
+    <t>Kahan Aa K Rukay Thay Rastay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QlckJnYpFUMVONi6rQEnh9XRmHM5FHPh/view</t>
+  </si>
+  <si>
+    <t>Dil Pholon Ki Basti</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TjtqSN0UR69m4YdYffiUxTLQfC_IyP8A/view</t>
+  </si>
+  <si>
+    <t>Mere Khawab Lota Do by Nighat Abdullah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wV9qzgGXS2XecVFPWqi3rJN9DhiIpab7/view</t>
+  </si>
+  <si>
+    <t>D C D K P By S B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GDHh6IoPQmUyRlz_jhNOPtCW0NCwAXzx/view</t>
+  </si>
+  <si>
+    <t>Dil Da Dais By Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kok5lyg8tekgvQqy5RuQ8BDIL48lNu1I/view</t>
+  </si>
+  <si>
+    <t>Gardab e Arzoo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17O6Zj-D7sP9nDOqHoCAYXIyaoMvwVYt6/view</t>
+  </si>
+  <si>
+    <t>Hasti Ka Ahang By Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YVm43ShjGlNy0cFbOU7B87bA4AI5D-XF/view</t>
+  </si>
+  <si>
+    <t>Ye Jo Raig e Dasht e Firaq By Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F6dfptO3Hkq5vUWYInfTQsrp2Cdd6iv3/view</t>
+  </si>
+  <si>
+    <t>Jinhen Rastay Mein Khabar Hui Novel Full By Nazia Kanwal Nazi  theurdunovel.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TFlF2y325oqMAfjD-qETug6qNJa0SjTr/view</t>
+  </si>
+  <si>
+    <t>Pathron-Ki-Palkon-Par-By-Nazia-Kanwal-Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zXi6yNorvellNn2ygI5D6IFY_cN3Zucd/view</t>
+  </si>
+  <si>
+    <t>mohabbat ik sulagt shaam by nazia kanwal nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u4kLfwUVUjy5OwUOPOMDcZAT4Zbukrg4/view</t>
+  </si>
+  <si>
+    <t>Maey ni main kinon akhan by Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11XUHMknFis0fC50LLNwWyhz4S4gebesO/view</t>
+  </si>
+  <si>
+    <t>Woh Jo Ishq Tha Novel 1-4 By Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15gkXJWYgo5f9hmVYi_kGQsoj-ZRUguYg/view</t>
+  </si>
+  <si>
+    <t>Wo ishq jo hum se rooth gya by Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MlJLEJd_qs8LFBxcVPXO6ydeXHFqXp9Y/view</t>
+  </si>
+  <si>
+    <t>Tu kia jane dil ka dard by Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cBPhu1qyzsPX1WSUs28ktuBBBMAGxphL/view</t>
+  </si>
+  <si>
+    <t>Shab+Hijr+Ki+Pehli+Barish+Part+1+By+Nazia+Kanwal+Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iZc6y5IRkstXZ7JXT-unVY_OsZs3wVDV/view</t>
+  </si>
+  <si>
+    <t>Jheel kinara kankar by nazia kanwal nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13EG4y0hHE6H8lZOXpAe1Q1VuCoNYxUOu/view</t>
+  </si>
+  <si>
+    <t>Jab woh pathar moum hua by Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j1goqqFiFHSV4LLolQh1INJ67QvNG4ju/view</t>
+  </si>
+  <si>
+    <t>Ishq Safar Ki Dhool</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NoI_jgkqFs-m240X74nYLq3RdQKPN9qN/view</t>
+  </si>
+  <si>
+    <t>Khawab Nagar Ki Musafatain By Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14R6Wf1OGfp8m4j_uFikskZCatLSpDQ95/view</t>
+  </si>
+  <si>
+    <t>Baraf Kay Ansoo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ieSVEJhNQGkLs7QffS_NE3o1fA5IGfwj/view</t>
+  </si>
+  <si>
+    <t>Hum Kise ka Khawab Thay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dYgxpYH70Vp9i6eQu5ElIUf1ikQ3yMI3/view</t>
+  </si>
+  <si>
+    <t>Aey Ishq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H2smRA6tVa7PfjU949wwsJKEuVM2Lzkl/view</t>
+  </si>
+  <si>
+    <t>Aye Mohabbat Teri Khatir By Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hfZ-HROhsi0OtGQjD0J9FpD5D0G-s3mT/view</t>
+  </si>
+  <si>
+    <t>Aey Mazgan E Mohabbat By Nazia Kanwal Nazi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kNZKa9l_RTmjXPJWZLyiU3oGbyC1bXI7/view</t>
+  </si>
+  <si>
+    <t>Tark_E_Wafa_1_11_Paksociety_com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F8z0iWurrT4_3OgVX-8sFtkEtP7F1dDB/view</t>
+  </si>
+  <si>
+    <t>Zard+Patoon+Ka+Shajar+By+Nayab+Jelani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1euvXi1fABrRCiG7D-LwqiT8YU5zroHj7/view</t>
+  </si>
+  <si>
+    <t>Tum Mere ho - Nayab Jilani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12nEPvylc94YSdrrnz-t6PoJbIc9sPgU-/view</t>
+  </si>
+  <si>
+    <t>TSHSM by NJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mHemhfq2DB-6VBPm1AnW-zF-E8Ef6-Tg/view</t>
+  </si>
+  <si>
+    <t>shehar e khata by Nayab Jilani Complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1czdhx60mv2wnifKuoeOBrEenRhTNmHE5/view</t>
+  </si>
+  <si>
+    <t>Dil toot ke hara tha by nayab jilani complete,, readingpointpk.blogspot</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vphUTKuiQDr2rtQx4to3wyUN7IivWu8G/view</t>
+  </si>
+  <si>
+    <t>Koi Chand Rakh Meri Shaam Par By Nayab Jilani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Y7xCfiD628IiUDRsxglBPQaKpJui_SI/view</t>
+  </si>
+  <si>
+    <t>main hari piya by nayab jilani..</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lK_B15zwnUpnx1-GvBcwVpAmSdSkgb6m/view</t>
+  </si>
+  <si>
+    <t>Nahi Asan Yeh Safar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gDqzMPl6kIibFRMJx76nsm2pKBUGT_wd/view</t>
+  </si>
+  <si>
+    <t>O Re Piya Novel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AVdKoHTT2VLFyZ7PqdgD6M2UqdYCwwkp/view</t>
+  </si>
+  <si>
+    <t>dayar e subah k ujalon main by nayab jilani complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12ivxoY9C8CwPM7fVku-FdCJ497Piux2P/view</t>
+  </si>
+  <si>
+    <t>pighalta hua mausam by nayab jilani (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/104C2ZngH6AHvxYLrtMJOPkDlj8yfrx1A/view</t>
+  </si>
+  <si>
+    <t>Baab e Ishq By Nayab Jilani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R8sOOh-sHnRZVJNBNkJDRdaucofVAcai/view</t>
+  </si>
+  <si>
+    <t>Chehron Kay Ainay By Nayab Jilani urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TJQINTBim_UK65I2w_QCLCkJEj5hhRYG/view</t>
+  </si>
+  <si>
+    <t>Bay Nishan Manzalain by Nayab Gelani theurdunovel.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rr5zOx2gLBovXnFaCx3yJXCHYjVITVLO/view</t>
+  </si>
+  <si>
+    <t>Kabhi Ishq Ho To Pata Chale by Nayab Jilani</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-ZDnt8SgfvWy244YFOPkZW0otmebNURD/view</t>
+  </si>
+  <si>
+    <t>Aeen E Wafa Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15rdEe_5KcH_TfO-5rX5BMu73k0HlQ8k1/view</t>
+  </si>
+  <si>
+    <t>FI - Mata e Jaan Hai Tu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qnVDEKanGU-Xx1T14t3klfpNDohs32eS/view</t>
+  </si>
+  <si>
+    <t>Khushboo_Bbadal_Chand_Hawa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q-a1GWj_KYg3rrqH6_8pFWGZKXHuraaZ/view</t>
+  </si>
+  <si>
+    <t>Khushi Ko Dhondtay Hoye By Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fnrAiQEei4XGscFXjtiHQMWYw9RCnEMv/view</t>
+  </si>
+  <si>
+    <t>koi baat hai teri baat main</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nIBYmnGWnweMo1hUB3v_uwUcx9_0z01Y/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NjsI-limsfuqJutjvSO7K6GehntWVQ5S/view</t>
+  </si>
+  <si>
+    <t>Kuch Pagal Pagal Say By Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/139MsVqjCyWAfDlqsSh2YHL0fzdXoDFBw/view</t>
+  </si>
+  <si>
+    <t>Mosam E Gul by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XgyxTWp0tOife-nWJ3VI7GJwzz1POEIt/view</t>
+  </si>
+  <si>
+    <t>Junoon Tha Ke Justuju by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14Ywnp74AZB0ToFBn2ZN5NU6cqJrxFZpi/view</t>
+  </si>
+  <si>
+    <t>Khushi ko dhondte hoey by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jbhwTXJ9CNz_QvKk4hdYb-7_0Ht-XtTe/view</t>
+  </si>
+  <si>
+    <t>Chalo toro qasam iqrar karen</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MUW3ghIDvWjjSJYpR2v0xCjao_EaO0Y-/view</t>
+  </si>
+  <si>
+    <t>Hum khuwab kion dekhen by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10_q-WD0oE09Fs9ccet0wsmAS0BfcCt2e/view</t>
+  </si>
+  <si>
+    <t>Diyar e dil complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zOt1iIWb1grhIiXEjT361GtRc5RhDMGZ/view</t>
+  </si>
+  <si>
+    <t>Kab hath mai tera hath nahi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZFfzolFZ8aTH3nPtxY0TbJ_k0sYZ5q6Q/view</t>
+  </si>
+  <si>
+    <t>Sirf Mohabbat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GyqoR5TszL_xHJYyWb3QPDe2DsdmA500/view</t>
+  </si>
+  <si>
+    <t>Yeh sharakat gawara hai mujhy by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1klRi7Nd4xkaHPuFC9cgaaECRwtv-hT5E/view</t>
+  </si>
+  <si>
+    <t>Wo Jo Qarz Rakhte The</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uMlgaFLHva5fqHszQqQdQNpb6Bg2PvDt/view</t>
+  </si>
+  <si>
+    <t>Taqreeb kuch to</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fevx16fsp3Agg4z_NGNetJfcdYaVwUHH/view</t>
+  </si>
+  <si>
+    <t>Jo bachey hain sang samait lo complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19SV1hgA6xSg5pC1fuQQUj6-eCScMZTHI/view</t>
+  </si>
+  <si>
+    <t>Rait se butt na bana</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OlqYXjX4f4d7NNzaHJtPqdDTO2qVsoz9/view</t>
+  </si>
+  <si>
+    <t>Ye hanasta hua mausam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lQe81tiXzsHxB9Jtlx6ebym9_jZUKPJs/view</t>
+  </si>
+  <si>
+    <t>WO EK AISA SHAJAR HO BY FARHAT ISHTIAQ (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UFVhSGeJc3uIonj50Rw4rHqhj7-Dd3Sd/view</t>
+  </si>
+  <si>
+    <t>Tere liye hai mera dil by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nGMa8hTZA2fgB-GLnmAMPmUPWyuasMaA/view</t>
+  </si>
+  <si>
+    <t>Qaim Ye Aitbar Rahe By Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16bHUfkivuqG_2s1M9eDOUZ3AW34xpHbz/view</t>
+  </si>
+  <si>
+    <t>Pal Bhar Rasta Tay Karnay Main</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gJU2-iI4PrJxUYtExNrPX-6hiiXNb3r0/view</t>
+  </si>
+  <si>
+    <t>Yeh Khawab To Ik Sarab He</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1keqcUdWee1HbNJU9rHFdMMROR8VbkTQI/view</t>
+  </si>
+  <si>
+    <t>Me or chanda mama by Farhat Ishtiaq-min</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w2lRioNmBFsPSOq9-rUxZINPuc32wu3_/view</t>
+  </si>
+  <si>
+    <t>Taqreeb Kuch tu ho by Farhat Ishtiaq urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j8TWKsMesQDSE2YGQNX6c2pzRyZyLZAH/view</t>
+  </si>
+  <si>
+    <t>Dil to Hai Na Sang-o-Khisht by Farhat Ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bk0zLIuLWMiayvo_EecqtBa8hKLsTUdX/view</t>
+  </si>
+  <si>
+    <t>dil se nikle hain jo lafz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-fsKFBmEuZeINgmxQPhNzvULfr27xq0p/view</t>
+  </si>
+  <si>
+    <t>Wo+Yqen+Ka+Nya+Sfr+Frht+Istq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-h4mGQ4kRiM9cEuuZknNELeSSZ2hOv8N/view</t>
+  </si>
+  <si>
+    <t>Ultee Ho Gaeen Sab Tadbeerain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jcWkO004rDm5DZ4pbb_0yWqO4IScX7SB/view</t>
+  </si>
+  <si>
+    <t>Tum Hansti Achi Lagti Ho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uNg5ETIOTFR0PYlTKi86SQi1HpzVm1iF/view</t>
+  </si>
+  <si>
+    <t>Sirf mohabat by farhat ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1664gLk7P5fkTfOmUXeKerSvkPTASPUQi/view</t>
+  </si>
+  <si>
+    <t>Safar ki shaam by farhat ishtiaq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12QenyqrYcYvVUGXhHNB4SyjDx8f4VWZG/view</t>
+  </si>
+  <si>
+    <t>Mohabbat Aik Sagar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LwsgC592J1_0V4_rwJKYjB5ZCYZ2K5lY/view</t>
+  </si>
+  <si>
+    <t>MHMDBYFI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FRerlyXvd9_oDvEAc3CCctkOblGg1iub/view</t>
+  </si>
+  <si>
+    <t>Hari Bhi To Teri Piya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VwFhiPPE93Ry8sxwYsUyvH_jWf6MPW-O/view</t>
+  </si>
+  <si>
+    <t>Bin Roye Ansoo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CWdwrGFZ4S5BLI9zaRTRJTnyzmNkTPRR/view</t>
+  </si>
+  <si>
+    <t>Abhi Kuch Din Lagain Gay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18m_fB7PoxJq2X4qsuwI5lO4Hb_Hp_Tnc/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TfsW6XIRjbvheJ0t5o5uSXgS7HU7uG6g/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-LrnG-x8vOXjnmYur2tlP4ENIs3yFv5L/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FcDESazkeorfeR-sJdyzYgf0aJDg-cIo/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dVynyiPS5ttmu6NacyQHtTgYrwwxg_-P/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ghT25R-VHz4oBMe3jtRJotmL_tIPEnw-/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RYg6P-3-HbfEJepRNXIr28fSM4wOA0jD/view</t>
+  </si>
+  <si>
+    <t>Velutha Epi 7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1av6NatIvXxC75A3WpR9pkOH0Uf_n2cXi/view</t>
+  </si>
+  <si>
+    <t>Bol ke lub azad hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qTixYUPN-N1ScHNHeyIWreHD5AJxWTdg/view</t>
+  </si>
+  <si>
+    <t>Tumhen kitna chahtay hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1usDVDX1UYILl0y-MFsbyd5jb4TUS0Gj3/view</t>
+  </si>
+  <si>
+    <t>Bint e Hawa by Saima Akram (2)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tSXNg9wUj2unfk-T0xNK8T5NdTr_W0fG/view</t>
+  </si>
+  <si>
+    <t>Kala shah kala</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z2D-agJDfApw39owC_cbPcWSo_Toei0t/view</t>
+  </si>
+  <si>
+    <t>Bisat e dil by Saima akram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vE2A7I5lTEv7BhWij8OvIIqwS2xkSYd5/view</t>
+  </si>
+  <si>
+    <t>pehli barish</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KX2YZ1WN0xqjK3nLy8I1XwCgFi-Lem2O/view</t>
+  </si>
+  <si>
+    <t>Janjua house by Saima Akram (2)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GXfS0mRT-B6u2bTiIdh2xK9Rrno11v7g/view</t>
+  </si>
+  <si>
+    <t>Zindagi khubsoorat hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VTXI1emE705R8PFrYXuzLPl1HjIF3sQs/view</t>
+  </si>
+  <si>
+    <t>Pehli Barish By Saima Akram Chaudhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BO0nqSw4XiGzVqXOvd0-_NbJLukXphx5/view</t>
+  </si>
+  <si>
+    <t>Ye Bazi Kis Ne Hari Hai By Saima Akram Chaudhary urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EGeWmlrW6qvAWTyUoUIpxDntz9Uu5L3p/view</t>
+  </si>
+  <si>
+    <t>Ye qurbaten ye musaften</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CLHCFMkZUHjjN1RFu3xxY_CtDo2f-AuG/view</t>
+  </si>
+  <si>
+    <t>Teri chah mai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pw_PZjx8G8zTtOhUdVAoHV06k29E8yCX/view</t>
+  </si>
+  <si>
+    <t>Ulti ganga</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fFzrEAWxWzU-nMda9mp8ruUBNdgJRixV/view</t>
+  </si>
+  <si>
+    <t>Sirf Dil Kay Saey Main</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17BYfer3k-fdR6HSmnBn9jkgiyGgeyxtX/view</t>
+  </si>
+  <si>
+    <t>Satt rangi chunri</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-QWxAYfhqLSPlApkVqftN_vk2k-GItAg/view</t>
+  </si>
+  <si>
+    <t>Safar Tanha Nahi Karte by Saima Akram Chaudhry Urdu Novels Center (urdunovels12.blogspot.com)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OnbiI9XRr-Z4Wu0hGsv16KcACR5YzQ8_/view</t>
+  </si>
+  <si>
+    <t>Sabz ruton ka</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IZd6X5Kf6qr0K83z39R4ZybLZ6OwC-Rc/view</t>
+  </si>
+  <si>
+    <t>Phir hua yun</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10LZr1EeBXYfXd7jlyh9ErYXNehAc_sv3/view</t>
+  </si>
+  <si>
+    <t>Pani Kis Ke Hath Aya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pO8A9hy4_pPDaeW_1wWZ5QVrD2fufTri/view</t>
+  </si>
+  <si>
+    <t>Muntaha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dcs2wk7rQCRvI850w7XCA2aKbsQQ3aHD/view</t>
+  </si>
+  <si>
+    <t>MOHABBAT HUMSAFAR MERI BY SAIMA AKRAM CHAUDHARY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14oUUk7tKGBnKmWVT26YjRS55_KSn_rpK/view</t>
+  </si>
+  <si>
+    <t>Mohabbat Mar Bhi Sakti Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13E-584NdG552F66RnMYCzS35chChV5KN/view</t>
+  </si>
+  <si>
+    <t>Meri eid tum</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ALJEN37OQ585KcHh0UHgji3-_jZXAymL/view</t>
+  </si>
+  <si>
+    <t>Mere raste mai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t4LXyqE_qPwfSIJfXm0Gf7ikCBv--Skh/view</t>
+  </si>
+  <si>
+    <t>mere khawab chehra ganwa gaye complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FXg_k89eB-hSJdOIE_pem-0VUIrMbgn4/view</t>
+  </si>
+  <si>
+    <t>Mausam e gul hairan hay by saima akram chaudhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ji1N9s366J_IH3L4qBjAqGLuAEIvo-wA/view</t>
+  </si>
+  <si>
+    <t>Mai hoon na</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G1kOaVzzxDLNgm99s2hbyk5LonQ3oucK/view</t>
+  </si>
+  <si>
+    <t>lamhon ki uljhi zanjeer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A9mMxWv7tRspy2dq3-xGxqoxhi27Xbw1/view</t>
+  </si>
+  <si>
+    <t>Khali hath</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZvMTxQ88ddmPtl1ZPqUFNLTqFbFUb7cI/view</t>
+  </si>
+  <si>
+    <t>Janjua house by Saima Akram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d_dEJ0oITc93mhIyNjhKvCPC6DeSSJyM/view</t>
+  </si>
+  <si>
+    <t>Hum khushboo ke sodagar hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1At517ZGWq6dolPPkDuw2OMcQXAuKHiso/view</t>
+  </si>
+  <si>
+    <t>Hum Is K Hain By Saima Akram Chaudhary urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BP6h0V7o-IvFZbkeDc4A9XvzSNDlK5Z-/view</t>
+  </si>
+  <si>
+    <t>Hathailion pe rang</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bSW3yZzVyc78bqmwmWW1b0HEaojtrafX/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FW-yJT0E1gJsZMHVtfoo5B3Is-SOk-Rh/view</t>
+  </si>
+  <si>
+    <t>Dil aangan ka chand by Saima Akram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bCWyCJyxy8cqzOSn0JOciOZhSWigp1qW/view</t>
+  </si>
+  <si>
+    <t>Dard E Agahi By Saima Akram Chaudhary urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t_5b9Ib91BwFTMV7O7_9X8QaqgtUEC6N/view</t>
+  </si>
+  <si>
+    <t>Chalo Hum Sath Chalte Hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xXLam4wQ4-kim_xeddjYB7GZtzZ3HPek/view</t>
+  </si>
+  <si>
+    <t>Bint e Hawa by Saima Akram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HNrHBhyv7wmq43jkTc_WP4u4vdI0DU91/view</t>
+  </si>
+  <si>
+    <t>Bheegte mausam ka iqrar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jaW5wkNK1E9kKVje3PpuBf8UgbLn2l3n/view</t>
+  </si>
+  <si>
+    <t>BHAID MOHABBAT KAY BY SAIMA AKRAM CHAUDHARY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wkz9NI7jWOXJ2ZPExv4E-sL8He1c548t/view</t>
+  </si>
+  <si>
+    <t>Baat umar bhar ki hai novel by Saima Akram</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pvjxe81ruh6aOHD1g19XXpcLMYz7dK8y/view</t>
+  </si>
+  <si>
+    <t>Ajab silsily hain wafa kay by Saima Akram Chaudhary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zCwsNSZ3VH4aSPid3C4AWVWQrW4gt_p4/view</t>
+  </si>
+  <si>
+    <t>Aey ishq hamen barbad</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z1XKWK42fcEs7lcf1F2q3ieXfbYLCd3-/view</t>
+  </si>
+  <si>
+    <t>Aey dil e nadan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15x0HZPBq-ebORJth40vclUd_zrZ4INaD/view</t>
+  </si>
+  <si>
+    <t>Aehle shehar e wafa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O_fXI18vIb03A7JuD7OFDdJwE-3IOLta/view</t>
+  </si>
+  <si>
+    <t>Ab Zindagi Se Pyar Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15lrCWEJtfPvVyHoT6Aa4Q1weVkn5t4we/view</t>
+  </si>
+  <si>
+    <t>Aankhon Ke Par Chand By Saima Akram Chaudhary urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hCJG8mPJHObVfG6-EvFYrAaTsTGO9ZBp/view</t>
+  </si>
+  <si>
+    <t>Daaj Complete Novel By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OEpSb4FFNiIM2oBbqCEqEjRk4ZoUyyDZ/view</t>
+  </si>
+  <si>
+    <t>ahde skoot</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iAOsYbJpLZCu6DuB-vHzdxT9482M_HKe/view</t>
+  </si>
+  <si>
+    <t>bond bond tamasha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-035-yttQmiNPZJi8ZQYBiduXEc750cO/view</t>
+  </si>
+  <si>
+    <t>khana e Ankaboot Complete Novel By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fHN2RiCN35rXOUKDdqRKiEVa4cyYje_i/view</t>
+  </si>
+  <si>
+    <t>Mai binnat e Jamila (2)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17iDUZt0y9mxBS-m0MQx3Z1PUrr5qk0kr/view</t>
+  </si>
+  <si>
+    <t>Naye dulhan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IDPFOUx4zYBnODtouxpTpUfgl5gCkU8O/view</t>
+  </si>
+  <si>
+    <t>Rah-E-Yaar-Novel-By-Sumaira-Hameed-Complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xH_IXHvFzaVtClPZ8Ov7qOnnGB69rjb1/view</t>
+  </si>
+  <si>
+    <t>Khasara</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13Gnd5qKAIaHaNFSPgfkkgRMTtfynheGy/view</t>
+  </si>
+  <si>
+    <t>Osar By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19jrDqn4UBFR2V4pzysE4kYPZUF-YFVyb/view</t>
+  </si>
+  <si>
+    <t>Aatish_E_Zar pa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W9H_I6gsMucEaZ52ogW648ilFkdAZg3-/view</t>
+  </si>
+  <si>
+    <t>jog as novel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XqlSwln7YbzhaMyVTbq2KGeamE-tYRLL/view</t>
+  </si>
+  <si>
+    <t>Tum hi ho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PephpfbrA3hD_nxDMSoGpHArwNWKECT-/view</t>
+  </si>
+  <si>
+    <t>ابن القلم سمیرا حمید</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZAaJg-ZT7MZhkDe98RjOUrZCO4Otk945/view</t>
+  </si>
+  <si>
+    <t>tum mujh mein ho by sumaira hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jL5qo2UbZIlwCXIzTpZXbhPnN8v3vDC2/view</t>
+  </si>
+  <si>
+    <t>Tu haraf e bayan by Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QcxPPBCebRqLvbtQsIWjr2PBq1_0w9CO/view</t>
+  </si>
+  <si>
+    <t>Talisam e murdar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sgiZJ1lFkjQWrHGk4MYXu6_vzW7D2c7h/view</t>
+  </si>
+  <si>
+    <t>SEHRA KA PHOOL DHOOP KA CHAND BY SUMAIRA HAMEEd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QLZBesFxVmcMdDXMk1v-hLy-KWSA_KUu/view</t>
+  </si>
+  <si>
+    <t>Roshan Andhere</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rXvP3TJyVNDgTz96bKP_vcYOUZIMTXm-/view</t>
+  </si>
+  <si>
+    <t>Paiheli</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y1usl8GJ_ElfsJPVlX0Rk0Fjv7IEvW_d/view</t>
+  </si>
+  <si>
+    <t>Nirali bi by Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13fJVQGHBoBAl-q8woHmVsB6ueOBqZKwo/view</t>
+  </si>
+  <si>
+    <t>Mohabbe Rab by Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bpuhxcpu1x6c3Jr62N0Qv1VoOyCXVJkq/view</t>
+  </si>
+  <si>
+    <t>Mehar meeran</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cxnPKi7qyvQQpG32eJLCIJRpvd3iZTiI/view</t>
+  </si>
+  <si>
+    <t>Mai binnat e Jamila</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hE0tEnP7taj4MxE2m0xKaEJJ0b4GAMM1/view</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kUOglQSRGz_mYi5SGT90EaruAT65nG-z/view</t>
+  </si>
+  <si>
+    <t>KUCH BHI NA KAHA BY SUMAIRA HAMEED</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TMj2R7wTIGIELYBXR9WvN_HOm1Nh-K8_/view</t>
+  </si>
+  <si>
+    <t>Lagi Thi Jeet Haar Hai Kaisi By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v93yyxmU5MqSFOTQLMEZ_kdBV6ZTUprh/view</t>
+  </si>
+  <si>
+    <t>kesi jeet kesi maat by sumaira hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y7hi9iGLL0yc90hKcK7XrJLQF-x4c3nz/view</t>
+  </si>
+  <si>
+    <t>Ism e Azam By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bX5VQiYMzRLoujcQkZdlmz3gIA6-kYEV/view</t>
+  </si>
+  <si>
+    <t>Hayat Mumkin Hai By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FGfzn1Bfs6_Atwlw3gm7H5Y_eMI8RnNH/view</t>
+  </si>
+  <si>
+    <t>Hamari kahani by sumaira hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15wMvQsRSc4IiGInE284TCVNUTE84p1sw/view</t>
+  </si>
+  <si>
+    <t>Gharoob e Mohabbat Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gOWDWq0fTtGm2ifMRlRpER3bS795yqe_/view</t>
+  </si>
+  <si>
+    <t>Ese Eid kehte hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I8nZ5b-yhNySKPQBaHeMuuedMYTWC3oQ/view</t>
+  </si>
+  <si>
+    <t>yaaram by sumaira hameed complete</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12z43iTA4aHhYI_xSysZrwQLEFacs3J5P/view</t>
+  </si>
+  <si>
+    <t>Deenar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_X1Ev5ZkF5tx5e5ctuq5-6wZt3RYXWI5/view</t>
+  </si>
+  <si>
+    <t>Daim ul habs by Sumera Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s2J_HkacopHgkgBojtnfxhXEzVkrGXpt/view</t>
+  </si>
+  <si>
+    <t>Barha Bhag Ki Meena By Sumaira Hameed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ES9vVN9UfURi-XR94LDHoVeVxQRp8Y-O/view</t>
+  </si>
+  <si>
+    <t>Uske hijar ki sham</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Cg5B8IKtTRso6_4gOUKqC0rk00y4Wlhi/view</t>
+  </si>
+  <si>
+    <t>Khuwab serab</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/132Tv3GJ59WZTgfw0a-zfnoQUfhtk868_/view</t>
+  </si>
+  <si>
+    <t>Waqat ki parten</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11_S27QHpYTTbf6pSVodG0wbBOFKJnWzz/view</t>
+  </si>
+  <si>
+    <t>Ek aur daria</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19X41I4X8s3JSVHODFjS6UqTtHbFKTFbN/view</t>
+  </si>
+  <si>
+    <t>Khuwab bunnay se pehle</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c9ju_D7zFhRzu2z_MiPojwaMs-jEXQFn/view</t>
+  </si>
+  <si>
+    <t>aey ishq hamen barbad na kar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15R7f-hqO94JSGsRKTkg6659dqC--uf2S/view</t>
+  </si>
+  <si>
+    <t>Na guwao naok e neem kash</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/185DxBR_WxYgvgv_gaBcRbIQyjAC9l6EP/view</t>
+  </si>
+  <si>
+    <t>Waqat ye bhi dekhe ga</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15V8oC7_v3Rn_boL5ZJF_55boUI1tAhgA/view</t>
+  </si>
+  <si>
+    <t>Kashtiyan jala di hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AopMlHnHTw_XCvtYZAcTKKXA6sHMhdhb/view</t>
+  </si>
+  <si>
+    <t>Kohkan na tha lyken</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VbRudD-EayAggu3hipo0v-5v_zf0Eppu/view</t>
+  </si>
+  <si>
+    <t>Tamanna ka dusra qadam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yQng5UXTUX8jCtpuz6YXSkxRGUjrRosr/view</t>
+  </si>
+  <si>
+    <t>Apka shukria</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PLzifsinqlk2cP500jwXINP1P5AqMqdC/view</t>
+  </si>
+  <si>
+    <t>Nigar e waqat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_2qUnlXqFhDoPovyEQCl5LJTY7F3j-L1/view</t>
+  </si>
+  <si>
+    <t>Waqat bhi sikandar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H_TD8Jwx1BveaJffFJ_nHS-1jJlnWCRG/view</t>
+  </si>
+  <si>
+    <t>Matti aur mausam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JW6x5ViBTEUmK7DBotL2mEBcyHQqAyzB/view</t>
+  </si>
+  <si>
+    <t>Wadiyt e muzgan e yaar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15cthKnVhICtq7sM6wv-LG4c_qsX_V_h0/view</t>
+  </si>
+  <si>
+    <t>Khuwab har aankh mai hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tjyKnllq8xQd-5W57rH6hSlfsSbOJ1e1/view</t>
+  </si>
+  <si>
+    <t>Khamoshi ko zuban</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19AkiI3bTyj3XJY_lc1-VftEgGCfZRb7l/view</t>
+  </si>
+  <si>
+    <t>Raat ki mang se</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p0mDJf6A-Z4XikWOQkS7l-aN2vxN_6g0/view</t>
+  </si>
+  <si>
+    <t>Khali hath khali dil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18_qrrbNM3S64kGKmIcpneZ2_Fnvjnjre/view</t>
+  </si>
+  <si>
+    <t>Wo ik sajdah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13aLp2soZUrfXKBiqDtKc1qpVzhZX9Rcd/view</t>
+  </si>
+  <si>
+    <t>Saray mausam badal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-7DNLOwqLMAgD3ydSH-Cb2Dlo4yc70jf/view</t>
+  </si>
+  <si>
+    <t>Nain aur Nayyar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o8_TJFpYJciT_6Y5YJBwPbq6jnwlvaTF/view</t>
+  </si>
+  <si>
+    <t>Chahy Jo puray dil se (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HH-88lFToNgLNtZbKLk_PEDUcBu2IgC_/view</t>
+  </si>
+  <si>
+    <t>Puhanchi Wahin Pay Khak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ybo0kUxgD6kh0HT0CYrey-mhjak9-8Mo/view</t>
+  </si>
+  <si>
+    <t>Aseer e dam e Tamana ke hum</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rwpxXFRDK16qDs4_4A3fcLD1KKVJ2gdH/view</t>
+  </si>
+  <si>
+    <t>Hawa ki moj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xLPjSueZMR4EAa8AiMpsPAgHF7ITcDAt/view</t>
+  </si>
+  <si>
+    <t>Umeedon Ke Musafir</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JA6jYSmQODePnDyKNybYpbszzwr3u_V-/view</t>
+  </si>
+  <si>
+    <t>Zindagi ek saaz hai by Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hhd5XsZMS2PjGgFjSg9prJyT5O0XjJ4n/view</t>
+  </si>
+  <si>
+    <t>Kisnay payen manzilen</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mf2ukTPxnFw053pWxZ-imRJow2ROsKeR/view</t>
+  </si>
+  <si>
+    <t>Bol uthay mausam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lQUAq_p739JhyOfU7rZuUTtIzt9_dF80/view</t>
+  </si>
+  <si>
+    <t>Nao aur bahaao</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w1MhtEsCBgllZOYycHrsJoSNH1Mz-ZZN/view</t>
+  </si>
+  <si>
+    <t>zindagi ki dhoop mein  by  Samra (1)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1okllEr9G0ggRVmmsJkpEA9qsOqqQ5-3h/view</t>
+  </si>
+  <si>
+    <t>zindagi ki dhoop mein  by  Samra</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PU-XZDRh8DOHuyy0saOmU3_5oNtjYTPl/view</t>
+  </si>
+  <si>
+    <t>Tum Aik Chiragh .paknovels.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qeNk6gPE6Qjt6VCSxhPZBJ1rHKafe6cP/view</t>
+  </si>
+  <si>
+    <t>Hum misale sehra hain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CCT6FvTXCEEWWhGr0piVRXF7XybWVhdh/view</t>
+  </si>
+  <si>
+    <t>Chah ke dr per</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T3nKwKb7VOHczoWb4T-LTAjue9dy5WaF/view</t>
+  </si>
+  <si>
+    <t>Aakhri shab ki</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cNQ4V5ac-E49QZHXrbUs5exh3btxMesH/view</t>
+  </si>
+  <si>
+    <t>ye hadsat e mohabbat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qjDPxKd7czFXDM7ahQyLZgumvv2mjdN2/view</t>
+  </si>
+  <si>
+    <t>Rah guzar e zeesat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mJvlXE4roFl1myAUbQgn0155wiy8_p0i/view</t>
+  </si>
+  <si>
+    <t>Sehar ka sooraj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dkjvMK1tATGR0aGzSbDSD0zSYk_DttQq/view</t>
+  </si>
+  <si>
+    <t>Umar e rayegan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PesIKjYt9oZO_ipIILRIxksG62FsjtfY/view</t>
+  </si>
+  <si>
+    <t>Ap se aur bhi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DzbcQE4L30awBiVBc2NaNAURnqhKifQU/view</t>
+  </si>
+  <si>
+    <t>Be pass e dostan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ykiSTD0bf7lv7AsDbCRMKT-3EKUfUneV/view</t>
+  </si>
+  <si>
+    <t>Sanwal yaar ka Daira</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iBdXlpwNoUesSsJdj1pLqbTrVTo_bJE4/view</t>
+  </si>
+  <si>
+    <t>Be naam jafa ki rahon mai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HW59bgJF8IctjdH2_vPy-qM5icqrVCe2/view</t>
+  </si>
+  <si>
+    <t>Gul kis ka sandesa lai ho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1guyFOdMT06B-TrATd-fgmdGLZogfEd7W/view</t>
+  </si>
+  <si>
+    <t>Waqat aey waqat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13bbl_2v_lrU_Js8XLI6NIzIldv97g8BX/view</t>
+  </si>
+  <si>
+    <t>Dairon ke darmiyan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Crut7Pnc-0l0xvvu6wKtb_aZK5c2fmaZ/view</t>
+  </si>
+  <si>
+    <t>Apni manzil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15pLVQa_vxGlYpqgB4mPsnaCNZHG3jkB8/view</t>
+  </si>
+  <si>
+    <t>Dil ki jhok</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fNYMxofKZBEO-_bd69JmhvbUwpgZ2Egg/view</t>
+  </si>
+  <si>
+    <t>Ehsan gham e ulfat ke</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rpcRLe6fALvebYyIwYDNH1mFLdvHca8Z/view</t>
+  </si>
+  <si>
+    <t>Deedni thi sadgi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O7uALCRdwgjhPt_ApNZoCY3Jpd1ow-91/view</t>
+  </si>
+  <si>
+    <t>Husn e garian ke abginay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YyisBBxxhiyTyCkGBc9R_uXP7oXkWMNG/view</t>
+  </si>
+  <si>
+    <t>Gard ki chaon</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kBzmvxQ9Gb4E-tM7whtLq-sNrjHsc-wE/view</t>
+  </si>
+  <si>
+    <t>Khuwahishon ki musafit</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fSYbESQ4ni4i8U9zYlcc_v9iKu-ELPrY/view</t>
+  </si>
+  <si>
+    <t>Rasam.e wafa hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ee4AaWByehIqLp01VyudSepxla8GIO0U/view</t>
+  </si>
+  <si>
+    <t>ZINDAGI RANGON SE HAI BY SAMRA BUKHARI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YziSVUTVWW7BlzXYAwFzBjSCZ8dTwkqB/view</t>
+  </si>
+  <si>
+    <t>Tu Eid ka chaand</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10Tzi-AiEEx4qr09H1JXq7W0seYRK5AVo/view</t>
+  </si>
+  <si>
+    <t>Shab k shikasta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uw7lUQ7LV567vCRAbq3Y-INayWVXIBtO/view</t>
+  </si>
+  <si>
+    <t>phool jagnoo bahar sawan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lxNHWM91CH2KriXmgKez_kMejtNC4ZZy/view</t>
+  </si>
+  <si>
+    <t>Lambi thi hijar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zmbdaz-iBJJ-Xj3lllQPSm3-mm7dRGiU/view</t>
+  </si>
+  <si>
+    <t>Jalti balti</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U3Bcd4gFQT7FQOFVzQaWGTVCWGZfrU_k/view</t>
+  </si>
+  <si>
+    <t>Dil ke andar aik rasta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NFvDMWUiEeimf5pSFfxQkiIHa53Tsuew/view</t>
+  </si>
+  <si>
+    <t>Dil aseer e khiyal</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oSjyIZIK-cfXGrgQTzM1tR8PBWBi-WWs/view</t>
+  </si>
+  <si>
+    <t>Chahy Jo puray dil se</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S3hONlpiNHK9knqn62rJSlInRsZJw8Lm/view</t>
+  </si>
+  <si>
+    <t>Bad-e-Saba Mehki By Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vuSACeyFSH3S5re0eCIJgM83XWuN3dfW/view</t>
+  </si>
+  <si>
+    <t>Aagahi ka sooraj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fYffNq6uidPYlqkAFi5Meet91wd9X_Xf/view</t>
+  </si>
+  <si>
+    <t>Waqt Yeh B Dekhe Ga</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mo-fpObnKAc8mS6idlYsEWI9bJY5BTnO/view</t>
+  </si>
+  <si>
+    <t>Waqt Ki Behti Dhaar by Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kyjFwvHAvKUQJ7cvAbvbUoZWmHlVnTWi/view</t>
+  </si>
+  <si>
+    <t>Tm subhe Eid Ho</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rQcK4A1m2O6zxw3dOyVBt3KzfYp4AcPh/view</t>
+  </si>
+  <si>
+    <t>Taron Se Saja Lein Shehr e Taman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oEpNN56KBV4cuvXPX2rsL5JQmGGNclgT/view</t>
+  </si>
+  <si>
+    <t>Rastay Bhe Wo Nahi Rahay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_UYlnRtfL-HaFf9jJunzGb73AGSj1sDU/view</t>
+  </si>
+  <si>
+    <t>Reet Riwaj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ycptl70n2HYZjAFF13utnhm11vAJlAFu/view</t>
+  </si>
+  <si>
+    <t>Na Habib Thay Na Naseeb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yp26oixtwAnXAV8K_uuZb9UzwLBHINTL/view</t>
+  </si>
+  <si>
+    <t>MOHABBAT ZAMANASAAZ NAHI BY SAMRA BUKHARI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WR3oHJr4tJb81NMmAEiqyL_sTjIX7ZdM/view</t>
+  </si>
+  <si>
+    <t>Mohabbat Ki Iss Kahani Mein</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EpA3fH2XoHd3lFGMzHcv5Zfc8r_kUj-i/view</t>
+  </si>
+  <si>
+    <t>MEHARBAN NA MEHARBAN BY SAMRA BUKHARI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1l-tEX_nlTKE9HaIZvKMm5JQrkSJga8_F/view</t>
+  </si>
+  <si>
+    <t>Meri Gudiya Mere Geet</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u6w0VHgHzIkisfE5uiyCVmZ0T9KezBmw/view</t>
+  </si>
+  <si>
+    <t>Me likhya Sohna Yar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o-IuN42o6VA1TASPCZhX-vD2zinQrpSi/view</t>
+  </si>
+  <si>
+    <t>Mausam e Hijar Tehr Jaey To</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_K1Cco7d8-v7rHRSlwzU300iptfzmaKe/view</t>
+  </si>
+  <si>
+    <t>Le Toote Na Zindigee Ke Saaz Ki</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ou1je-yF8AUX6BXAGl_czAaz8Z-sa7_t/view</t>
+  </si>
+  <si>
+    <t>Kti Sham e Hijr Ki Mudaten</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11a4Z3f8vl33Ty_Fe3gAlyM6A9d0yHbeb/view</t>
+  </si>
+  <si>
+    <t>Khushboo Ka Pegham</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NU9kcS1-QQl3ZtnyGZBa1gtnAbs7zzgV/view</t>
+  </si>
+  <si>
+    <t>Kabhi Dekhy Hain Ahl e Wafa Tum Ne</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R4jFYeydl8j6ZLNrvHgFlaysjGKmGT-q/view</t>
+  </si>
+  <si>
+    <t>KAAR E JAHAN K MELY BY SAMRA BUKHARI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1snyRgsvrA4s8MMD--boIbf7ftr_gdcVZ/view</t>
+  </si>
+  <si>
+    <t>Hum Se Hai Zamana (Complete Story) 01</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sEdCJPsz-t2cW6MuqeWQWWPV6HLQiO76/view</t>
+  </si>
+  <si>
+    <t>Hum Misl e Sehra</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TQLqZkey_CKBn0TO6yKUazUvn8Q9mj_F/view</t>
+  </si>
+  <si>
+    <t>Gul Rana (Hasti ke Ahang)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1THa2YF6Dr5vQb1WBw71guhXOiev1kbpc/view</t>
+  </si>
+  <si>
+    <t>Gol Gappay</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ccxDv3zNZ4fZ425f5D79pYW5WM_hJiQl/view</t>
+  </si>
+  <si>
+    <t>Ek Humsafar Acha Laga By Samra Bukhari urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18Wlf-S7pFC1j55jRQCmujywvyWQmc78l/view</t>
+  </si>
+  <si>
+    <t>Eid Ki Khushi By Samra Bukhari urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JQPknT_aZmdAc6wmcy_p1v5fp3ExByC0/view</t>
+  </si>
+  <si>
+    <t>dor r zaman ki karwtain</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xmtMe2QQXOHMH6fw7HaE7An0MyJx0NgV/view</t>
+  </si>
+  <si>
+    <t>Dasht E Hijran Mein By Samra Bukhari urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12UO8wDj9i8lkmoZr5LHshLhzgCSeGrje/view</t>
+  </si>
+  <si>
+    <t>Band Honton Ki Baat</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n6MEbxuhlQRF70vKoLL7IhtiXO1lwK-0/view</t>
+  </si>
+  <si>
+    <t>BA PAAS E DOSTAN BY SAMRA BUKHARI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vQZd8534NY4qNsgCyPUTl-gi9-bUrDwk/view</t>
+  </si>
+  <si>
+    <t>Aye Ishq Hamein Barbaad Na Ker</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oOlLynkKBoSoKpePiKZ4jhgAbk_xNTar/view</t>
+  </si>
+  <si>
+    <t>Ana ke gunbad e bedar hain by samra bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o_UMM__MhpHK4acTg5ov6yaaCYHLTyEL/view</t>
+  </si>
+  <si>
+    <t>Aik Faisla Us Ka Tha By Samra Bukhari urdunovelist.blogspot.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OQPi2x0LsqvA1RVPNhQ0QlHMieEJOSSW/view</t>
+  </si>
+  <si>
+    <t>Aiena Aur Hum Log</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18_3QDkzpYBBVLI7f_clO2P-eSD7BLuKt/view</t>
+  </si>
+  <si>
+    <t>Aey mere yaar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13SB6m2GkyXB2b8a2y7Fd6DVb7eoncYny/view</t>
+  </si>
+  <si>
+    <t>Agr Maany Maseeha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XJhA-krShvafFtagNfXmRqyXzoDCWyMm/view</t>
+  </si>
+  <si>
+    <t>Abhi Manzir Badalna Hai</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ajy375VNRDaDHkCLabw67TlcDX6Kf4dp/view</t>
+  </si>
+  <si>
+    <t>Abad Shehre Dil Se Shehre Yar Tak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tHduZ0NZqqvImVCfHuuHpbadwKjhOM5T/view</t>
+  </si>
+  <si>
+    <t>Aabad Hain Mujh Se Tere Khawab By Samra Bukhari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GdiVqrVD1Y_z_yG673TC01tMZjFK8hQy/view</t>
+  </si>
+  <si>
+    <t>Mushak Baam Epi 3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SpIC-FopjP9FPVbGhaHXLuMb2qdetUo8/view</t>
+  </si>
+  <si>
+    <t>Mushak Baam Epi 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-B5wAfjrBtgNoaMWB08Tz9erZ9hOIe56/view</t>
+  </si>
+  <si>
+    <t>Mushak Baam Epi 4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BEwZvzGvmOGB7JGn5dEoxyHVaJQ2c-1s/view</t>
+  </si>
+  <si>
+    <t>Mushak Baam Episode 5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RmtDGcjxfhpOEV3cBNsWZGcg2NcRI1Vm/view</t>
+  </si>
+  <si>
+    <t>Mushak Baam by Sumaira Hameed Epi 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ThHg7AkBHZ6-Fw5pdFHb9f6GFdfSSL0R/view</t>
+  </si>
+  <si>
+    <t>For new writer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pMjKL70KFHD5u-qaaYLJ-QeaYeUgXI3Y/view</t>
   </si>
 </sst>
 </file>
@@ -54,7 +2811,14 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,16 +3289,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,121 +3304,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +3430,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -977,13 +3741,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="47.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="51.4545454545455" customWidth="1"/>
@@ -997,27 +3761,3711 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="1" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="1" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" s="1" customFormat="1" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" s="1" customFormat="1" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" s="1" customFormat="1" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="1" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="1" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" s="1" customFormat="1" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" s="1" customFormat="1" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" s="1" customFormat="1" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" s="1" customFormat="1" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" s="1" customFormat="1" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" s="1" customFormat="1" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" s="1" customFormat="1" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" s="1" customFormat="1" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" s="1" customFormat="1" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" s="1" customFormat="1" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" s="1" customFormat="1" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" s="1" customFormat="1" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" s="1" customFormat="1" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="1" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" s="1" customFormat="1" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="1" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="248" s="1" customFormat="1" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="1" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="263" s="1" customFormat="1" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="1" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="265" s="1" customFormat="1" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="266" s="1" customFormat="1" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="267" s="1" customFormat="1" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="268" s="1" customFormat="1" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="269" s="1" customFormat="1" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="270" s="1" customFormat="1" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="271" s="1" customFormat="1" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="272" s="1" customFormat="1" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="273" s="1" customFormat="1" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="274" s="1" customFormat="1" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="275" s="1" customFormat="1" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="276" s="1" customFormat="1" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="277" s="1" customFormat="1" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="278" s="1" customFormat="1" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="279" s="1" customFormat="1" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="280" s="1" customFormat="1" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="281" s="1" customFormat="1" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="282" s="1" customFormat="1" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" s="1" customFormat="1" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="284" s="1" customFormat="1" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="1" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="286" s="1" customFormat="1" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="288" s="1" customFormat="1" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="1" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="305" s="1" customFormat="1" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="315" s="1" customFormat="1" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="316" s="1" customFormat="1" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="317" s="1" customFormat="1" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="318" s="1" customFormat="1" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="319" s="1" customFormat="1" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="1" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" s="1" customFormat="1" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="1" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="326" s="1" customFormat="1" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="327" s="1" customFormat="1" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="328" s="1" customFormat="1" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="1" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="1" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="1" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="1" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="336" s="1" customFormat="1" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="337" s="1" customFormat="1" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="338" s="1" customFormat="1" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="339" s="1" customFormat="1" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="340" s="1" customFormat="1" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="341" s="1" customFormat="1" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="342" s="1" customFormat="1" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="343" s="1" customFormat="1" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="345" s="1" customFormat="1" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="346" s="1" customFormat="1" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="347" s="1" customFormat="1" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="348" s="1" customFormat="1" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="349" s="1" customFormat="1" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="350" s="1" customFormat="1" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="351" s="1" customFormat="1" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="352" s="1" customFormat="1" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="353" s="1" customFormat="1" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="354" s="1" customFormat="1" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="355" s="1" customFormat="1" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="356" s="1" customFormat="1" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="357" s="1" customFormat="1" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="358" s="1" customFormat="1" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="359" s="1" customFormat="1" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="360" s="1" customFormat="1" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="361" s="1" customFormat="1" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="362" s="1" customFormat="1" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="363" s="1" customFormat="1" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="364" s="1" customFormat="1" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="365" s="1" customFormat="1" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="366" s="1" customFormat="1" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="367" s="1" customFormat="1" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="368" s="1" customFormat="1" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="369" s="1" customFormat="1" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="370" s="1" customFormat="1" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="371" s="1" customFormat="1" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="372" s="1" customFormat="1" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="373" s="1" customFormat="1" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="374" s="1" customFormat="1" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="375" s="1" customFormat="1" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="376" s="1" customFormat="1" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="377" s="1" customFormat="1" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="378" s="1" customFormat="1" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="379" s="1" customFormat="1" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="380" s="1" customFormat="1" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="381" s="1" customFormat="1" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="382" s="1" customFormat="1" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383" s="1" customFormat="1" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="384" s="1" customFormat="1" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="385" s="1" customFormat="1" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="386" s="1" customFormat="1" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="387" s="1" customFormat="1" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="388" s="1" customFormat="1" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="389" s="1" customFormat="1" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="390" s="1" customFormat="1" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="391" s="1" customFormat="1" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="392" s="1" customFormat="1" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="393" s="1" customFormat="1" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="394" s="1" customFormat="1" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="395" s="1" customFormat="1" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="396" s="1" customFormat="1" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="397" s="1" customFormat="1" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="398" s="1" customFormat="1" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="399" s="1" customFormat="1" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="400" s="1" customFormat="1" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="401" s="1" customFormat="1" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="402" s="1" customFormat="1" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="403" s="1" customFormat="1" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="404" s="1" customFormat="1" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="405" s="1" customFormat="1" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="406" s="1" customFormat="1" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="407" s="1" customFormat="1" spans="1:2">
+      <c r="A407" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="408" s="1" customFormat="1" spans="1:2">
+      <c r="A408" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="409" s="1" customFormat="1" spans="1:2">
+      <c r="A409" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="410" s="1" customFormat="1" spans="1:2">
+      <c r="A410" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="411" s="1" customFormat="1" spans="1:2">
+      <c r="A411" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="412" s="1" customFormat="1" spans="1:2">
+      <c r="A412" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="413" s="1" customFormat="1" spans="1:2">
+      <c r="A413" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="414" s="1" customFormat="1" spans="1:2">
+      <c r="A414" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="415" s="1" customFormat="1" spans="1:2">
+      <c r="A415" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="416" s="1" customFormat="1" spans="1:2">
+      <c r="A416" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="417" s="1" customFormat="1" spans="1:2">
+      <c r="A417" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="418" s="1" customFormat="1" spans="1:2">
+      <c r="A418" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="419" s="1" customFormat="1" spans="1:2">
+      <c r="A419" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="420" s="1" customFormat="1" spans="1:2">
+      <c r="A420" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="421" s="1" customFormat="1" spans="1:2">
+      <c r="A421" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="422" s="1" customFormat="1" spans="1:2">
+      <c r="A422" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="423" s="1" customFormat="1" spans="1:2">
+      <c r="A423" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="424" s="1" customFormat="1" spans="1:2">
+      <c r="A424" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="425" s="1" customFormat="1" spans="1:2">
+      <c r="A425" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="426" s="1" customFormat="1" spans="1:2">
+      <c r="A426" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="427" s="1" customFormat="1" spans="1:2">
+      <c r="A427" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="428" s="1" customFormat="1" spans="1:2">
+      <c r="A428" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="429" s="1" customFormat="1" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="430" s="1" customFormat="1" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="431" s="1" customFormat="1" spans="1:2">
+      <c r="A431" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="432" s="1" customFormat="1" spans="1:2">
+      <c r="A432" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="433" s="1" customFormat="1" spans="1:2">
+      <c r="A433" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="434" s="1" customFormat="1" spans="1:2">
+      <c r="A434" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="435" s="1" customFormat="1" spans="1:2">
+      <c r="A435" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="436" s="1" customFormat="1" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="437" s="1" customFormat="1" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="438" s="1" customFormat="1" spans="1:2">
+      <c r="A438" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="439" s="1" customFormat="1" spans="1:2">
+      <c r="A439" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="440" s="1" customFormat="1" spans="1:2">
+      <c r="A440" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="441" s="1" customFormat="1" spans="1:2">
+      <c r="A441" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="442" s="1" customFormat="1" spans="1:2">
+      <c r="A442" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="443" s="1" customFormat="1" spans="1:2">
+      <c r="A443" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="444" s="1" customFormat="1" spans="1:2">
+      <c r="A444" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="445" s="1" customFormat="1" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="446" s="1" customFormat="1" spans="1:2">
+      <c r="A446" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="447" s="1" customFormat="1" spans="1:2">
+      <c r="A447" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="448" s="1" customFormat="1" spans="1:2">
+      <c r="A448" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="449" s="1" customFormat="1" spans="1:2">
+      <c r="A449" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="450" s="1" customFormat="1" spans="1:2">
+      <c r="A450" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="451" s="1" customFormat="1" spans="1:2">
+      <c r="A451" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="452" s="1" customFormat="1" spans="1:2">
+      <c r="A452" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="453" s="1" customFormat="1" spans="1:2">
+      <c r="A453" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="454" s="1" customFormat="1" spans="1:2">
+      <c r="A454" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="455" s="1" customFormat="1" spans="1:2">
+      <c r="A455" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="456" s="1" customFormat="1" spans="1:2">
+      <c r="A456" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="457" s="1" customFormat="1" spans="1:2">
+      <c r="A457" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="458" s="1" customFormat="1" spans="1:2">
+      <c r="A458" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="459" s="1" customFormat="1" spans="1:2">
+      <c r="A459" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="460" s="1" customFormat="1" spans="1:2">
+      <c r="A460" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="461" s="1" customFormat="1" spans="1:2">
+      <c r="A461" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="462" s="1" customFormat="1" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="463" s="1" customFormat="1" spans="1:2">
+      <c r="A463" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="464" s="1" customFormat="1" spans="1:2">
+      <c r="A464" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>923</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.urdunovelbanks.com/2025/08/zanzaniya-novel-by-husna-hussain.html"/>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.urdunovelbanks.com/2025/08/zanzaniya-novel-by-husna-hussain.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/add_new_novel.xlsx
+++ b/add_new_novel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6470"/>
+    <workbookView windowWidth="18350" windowHeight="5750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Titles</t>
   </si>
@@ -35,118 +35,16 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Junoon Se Ishq Novel Tak by Sumaira Shreef</t>
+    <t>Mahe Darakhshan novel by fatima laghari</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1sQCTaEXMcKtSBHc3w2AJRK8TAaJ9vFRK/view</t>
+    <t>https://drive.google.com/drive/folders/1MFnuGT1O3vVMlJRfQ9C4qz1vTvI-0oGY?fbclid=PAZXh0bgNhZW0CMTEAc3J0YwZhcHBfaWQMMjU2MjgxMDQwNTU4AAGn0rvmQ5QSqs2bHKjQQ66bSDRjHrS767nE0uA4dwSrT65Wl-T5w_btZ3lxw-M_aem_0jEW2Uznk2mzvZF8ROCFCQ</t>
   </si>
   <si>
-    <t>Zard mausam k dukh complete</t>
+    <t>Mahe Darakhshan by fatima laghari</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/11szzDrNH61MKLBzYWQg3Y_XI8C64GVyk/view</t>
-  </si>
-  <si>
-    <t>Zindagi ki haseen rehguzar</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cTnJIg3h16-DmePq_V9ttWgHuorsL4k7/view</t>
-  </si>
-  <si>
-    <t>Toota Hua Tara By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mLFrAEYITTfbqx05uzYrF-9K0Mef3t1X/view</t>
-  </si>
-  <si>
-    <t>Wo aik larki pagal c By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1__qlUqZ-YZlFtKTm9sYYw4YroBK8Mb8O/view</t>
-  </si>
-  <si>
-    <t>Umeed e subhe bahar By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-PsU4e6i-Z7Y96z08YM25L2tf7Ap7BLC/view</t>
-  </si>
-  <si>
-    <t>Wo ik lamha mohabbat By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qlCScP5FkNegmuSMXAYYKHSqWTlbvhWr/view</t>
-  </si>
-  <si>
-    <t>yeh chahaten yeh shiddatein complete by Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iL0FLfCnZMKZ9-NLV-WOJtzFGbGlbFPC/view</t>
-  </si>
-  <si>
-    <t>Mohabbat yaqeen aitibar By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wOycbkyqdi5_iFPYtWrpZBDomIOHbYF1/view</t>
-  </si>
-  <si>
-    <t>Mohabbat Dhanak Rang Odh Kar By Sumaira Sharif Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1zt9hrWBLxddHUJeyJLFJcjj14wyGnkQ2/view</t>
-  </si>
-  <si>
-    <t>Pagal sa mera dhol mahiya By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fqPopUGMjK9zKJ39y1FTW2i0Fj6UtrNT/view</t>
-  </si>
-  <si>
-    <t>Kisi pathar ki moorat se By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/18zXrA2UlHpAvuktzJzkR1HfC0AXGwblx/view</t>
-  </si>
-  <si>
-    <t>PALKON KAY DAREECHON MEI BY SUMAIRA SHAREEF TOOR</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16IOWGBCSuMM9RxCHyK39dlL0_juHGFNY/view</t>
-  </si>
-  <si>
-    <t>Musafir laut aaye By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13BEWeza6hCjV4sglNwRBujtCsQlideAk/view</t>
-  </si>
-  <si>
-    <t>Dhal gaye phir hijar ki raat By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1bslxKt_SKHGFYpwVbV1k3b0gJrD9JzP1/view</t>
-  </si>
-  <si>
-    <t>Jis Dhaj Se Koi Maqtal Mein Gaya By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WkZ68xSuqIwoBwi_ipWQdKbUu7GmGBhp/view</t>
-  </si>
-  <si>
-    <t>Hisar e mohabbat by sumaira sharif toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17Pu_lI6PcV6L8Lac5HUTCM9GPRP_hCr6/view</t>
-  </si>
-  <si>
-    <t>Hum dil se haray hain By Sumaira Shareef Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CLcaX-gGmL_O36TBPtbEnWo5nNWqIxNw/view</t>
-  </si>
-  <si>
-    <t>Cat Walk By Sumaira Sharif Toor</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13hzCqv2D8vXju-D6RI3B1KDX9aUw7GrA/view</t>
+    <t>Mahe Darakhshan novel Folder</t>
   </si>
 </sst>
 </file>
@@ -159,7 +57,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,31 +66,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,139 +553,141 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,15 +1007,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="50.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1137,7 +1032,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1145,147 +1040,24 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://drive.google.com/drive/folders/1MFnuGT1O3vVMlJRfQ9C4qz1vTvI-0oGY?fbclid=PAZXh0bgNhZW0CMTEAc3J0YwZhcHBfaWQMMjU2MjgxMDQwNTU4AAGn0rvmQ5QSqs2bHKjQQ66bSDRjHrS767nE0uA4dwSrT65Wl-T5w_btZ3lxw-M_aem_0jEW2Uznk2mzvZF8ROCFCQ" tooltip="https://drive.google.com/drive/folders/1MFnuGT1O3vVMlJRfQ9C4qz1vTvI-0oGY?fbclid=PAZXh0bgNhZW0CMTEAc3J0YwZhcHBfaWQMMjU2MjgxMDQwNTU4AAGn0rvmQ5QSqs2bHKjQQ66bSDRjHrS767nE0uA4dwSrT65Wl-T5w_btZ3lxw-M_aem_0jEW2Uznk2mzvZF8ROCFCQ"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://drive.google.com/drive/folders/1MFnuGT1O3vVMlJRfQ9C4qz1vTvI-0oGY?fbclid=PAZXh0bgNhZW0CMTEAc3J0YwZhcHBfaWQMMjU2MjgxMDQwNTU4AAGn0rvmQ5QSqs2bHKjQQ66bSDRjHrS767nE0uA4dwSrT65Wl-T5w_btZ3lxw-M_aem_0jEW2Uznk2mzvZF8ROCFCQ"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://drive.google.com/drive/folders/1MFnuGT1O3vVMlJRfQ9C4qz1vTvI-0oGY?fbclid=PAZXh0bgNhZW0CMTEAc3J0YwZhcHBfaWQMMjU2MjgxMDQwNTU4AAGn0rvmQ5QSqs2bHKjQQ66bSDRjHrS767nE0uA4dwSrT65Wl-T5w_btZ3lxw-M_aem_0jEW2Uznk2mzvZF8ROCFCQ"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
